--- a/data/brasil_Fapeal.xlsx
+++ b/data/brasil_Fapeal.xlsx
@@ -841,7 +841,11 @@
           <t>https://www.fapeal.br/2017/08/chamada-cnpqicmbiofaps-no-182017-pesquisa-em-unidades-de-conservacao-da-caatinga-e-mata-atlantica/</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://resultado.cnpq.br/4122989410829793, http://resultado.cnpq.br/7250334397884397, http://resultado.cnpq.br/4203809418116487</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1089,7 +1093,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://antigo.fapeal.br/wp-content/uploads/2016/08/CHAMADA-PELD-15-2016-VERSO-FINAL.pdf</t>
+          <t>http://antigo.fapeal.br/wp-content/uploads/2016/08/CHAMADA-PELD-15-2016-VERSO-FINAL.pdf, http://resultado.cnpq.br/2617819769273185, http://resultado.cnpq.br/7137780825300333</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1891,11 @@
           <t>https://www.fapeal.br/2020/08/chamada-mcti-cnpq-ms-sctie-decit-fundacao-bill-melinda-gates-grand-challenges-explorations-brasil-ciencia-de-dados-para-melhorar-a-saude-materno-infantil-saude-da-mulher-e-saude-da-crianca-no-br/</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://resultado.cnpq.br/7973567609378122</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1908,7 +1916,11 @@
           <t>https://www.fapeal.br/2020/08/chamada-cnpq-mcti-confap-faps-protax-n-o-22-2020/</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://resultado.cnpq.br/2574859667392355, http://resultado.cnpq.br/6037436184888145, http://resultado.cnpq.br/2511807050006069</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1929,7 +1941,11 @@
           <t>https://www.fapeal.br/2020/07/chamada-cnpq-mcti-confap-faps-peld-no-21-2020-programa-programa-de-pesquisa-ecologica-de-longa-duracao-peld/</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://resultado.cnpq.br/6511694533370674, http://resultado.cnpq.br/6608535059034518, http://resultado.cnpq.br/5129999074403673</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
